--- a/lib/PHPExcel/templates/FT.xlsx
+++ b/lib/PHPExcel/templates/FT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gpm\www\GPM-TEST\lib\PHPExcel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC346E30-EC0D-4F92-93F9-E48CE604DCBA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB50AC7-4F4F-4614-8F90-8D18E1D4FA78}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="9645" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="252">
   <si>
     <t>DONNEES EPROUVETTE</t>
   </si>
@@ -574,9 +574,6 @@
   </si>
   <si>
     <t>Signal</t>
-  </si>
-  <si>
-    <t>Frequency</t>
   </si>
   <si>
     <t>Material</t>
@@ -1066,6 +1063,23 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">°C </t>
+    </r>
+  </si>
+  <si>
+    <t>* : limites Effort basées sur 5 steps uniquement</t>
+  </si>
+  <si>
+    <r>
+      <t>Frequency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF8497B0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Hz)</t>
     </r>
   </si>
 </sst>
@@ -3051,45 +3065,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="742950" cy="762000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A142A484-4C10-4B22-AA0A-3662C47E892A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="161925"/>
-          <a:ext cx="742950" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>66062</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3110,7 +3085,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3133,6 +3108,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>136009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2498DD9B-73F8-4AAE-92D7-96B743B4B438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="907676" cy="898008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4519,7 +4555,7 @@
   <dimension ref="A1:CO76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4536,7 +4572,7 @@
     <row r="1" spans="1:19" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:19" ht="60.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="189" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="188"/>
       <c r="E2" s="188"/>
@@ -4550,7 +4586,7 @@
       <c r="M2" s="188"/>
       <c r="N2" s="187"/>
       <c r="O2" s="372" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4558,28 +4594,28 @@
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="183" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="183"/>
       <c r="C4" s="145"/>
       <c r="D4" s="183" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="137"/>
       <c r="F4" s="145"/>
       <c r="G4" s="183" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H4" s="183"/>
       <c r="I4" s="186"/>
       <c r="J4" s="183" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K4" s="183"/>
       <c r="L4" s="186"/>
       <c r="M4" s="183"/>
       <c r="N4" s="185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O4" s="372"/>
     </row>
@@ -4610,12 +4646,12 @@
     </row>
     <row r="6" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="183" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="183"/>
       <c r="C6" s="145"/>
       <c r="D6" s="183" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="183"/>
       <c r="F6" s="145"/>
@@ -4625,13 +4661,13 @@
       <c r="H6" s="137"/>
       <c r="I6" s="184"/>
       <c r="J6" s="183" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K6" s="137"/>
       <c r="L6" s="182"/>
       <c r="M6" s="137"/>
       <c r="N6" s="181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O6" s="372"/>
     </row>
@@ -4663,7 +4699,7 @@
     <row r="8" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -4684,42 +4720,42 @@
     <row r="10" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:19" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="137"/>
       <c r="C11" s="137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="137"/>
       <c r="E11" s="137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" s="137"/>
       <c r="G11" s="137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H11" s="137"/>
       <c r="I11" s="180"/>
       <c r="J11" s="143" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K11" s="143" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L11" s="143" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M11" s="143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N11" s="143" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O11" s="143" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P11" s="142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="129"/>
       <c r="R11" s="129"/>
@@ -4763,28 +4799,28 @@
         <v>95</v>
       </c>
       <c r="S12" s="126" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="137" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="137"/>
       <c r="C13" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="137" t="s">
         <v>135</v>
       </c>
       <c r="E13" s="137" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="137"/>
       <c r="G13" s="137"/>
       <c r="H13" s="137"/>
       <c r="I13" s="178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J13" s="177" t="s">
         <v>95</v>
@@ -4810,7 +4846,7 @@
       <c r="Q13" s="129"/>
       <c r="R13" s="129"/>
       <c r="S13" s="144" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
@@ -4825,7 +4861,7 @@
       <c r="G14" s="162"/>
       <c r="H14" s="162"/>
       <c r="I14" s="175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J14" s="174" t="s">
         <v>95</v>
@@ -4852,7 +4888,7 @@
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="131"/>
       <c r="C16" s="131"/>
@@ -4878,15 +4914,15 @@
     </row>
     <row r="18" spans="1:21" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="137"/>
       <c r="C18" s="137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="137"/>
       <c r="E18" s="137" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="F18" s="137"/>
       <c r="G18" s="137" t="s">
@@ -4968,16 +5004,16 @@
       </c>
       <c r="D21" s="137"/>
       <c r="E21" s="137" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F21" s="137"/>
       <c r="G21" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H21" s="137"/>
       <c r="I21" s="169"/>
       <c r="J21" s="168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K21" s="198" t="s">
         <v>53</v>
@@ -4988,7 +5024,7 @@
       </c>
       <c r="N21" s="199"/>
       <c r="O21" s="137" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P21" s="137"/>
       <c r="Q21" s="129"/>
@@ -5249,7 +5285,7 @@
         <v>117</v>
       </c>
       <c r="E32" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F32" s="137"/>
       <c r="H32" s="146" t="s">
@@ -5308,6 +5344,9 @@
         <v>114</v>
       </c>
       <c r="P33" s="137"/>
+      <c r="S33" s="126" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="34" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A34" s="149" t="s">
@@ -5341,7 +5380,7 @@
     </row>
     <row r="36" spans="1:93" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="131" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" s="131"/>
       <c r="C36" s="131"/>
@@ -5359,7 +5398,7 @@
       <c r="O36" s="131"/>
       <c r="P36" s="131"/>
       <c r="AA36" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AB36" s="131"/>
       <c r="AC36" s="131"/>
@@ -5377,7 +5416,7 @@
       <c r="AO36" s="131"/>
       <c r="AP36" s="131"/>
       <c r="AR36" s="131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS36" s="131"/>
       <c r="AT36" s="131"/>
@@ -5395,7 +5434,7 @@
       <c r="BF36" s="131"/>
       <c r="BG36" s="131"/>
       <c r="BI36" s="131" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BJ36" s="131"/>
       <c r="BK36" s="131"/>
@@ -5413,7 +5452,7 @@
       <c r="BW36" s="131"/>
       <c r="BX36" s="131"/>
       <c r="BZ36" s="131" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="CA36" s="131"/>
       <c r="CB36" s="131"/>
@@ -5504,7 +5543,7 @@
       <c r="B38" s="137"/>
       <c r="C38" s="145"/>
       <c r="D38" s="137" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E38" s="145"/>
       <c r="F38" s="137" t="s">
@@ -5532,11 +5571,11 @@
       </c>
       <c r="AD38" s="137"/>
       <c r="AE38" s="137" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF38" s="137"/>
       <c r="AG38" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH38" s="137"/>
       <c r="AI38" s="137" t="s">
@@ -5553,12 +5592,12 @@
       <c r="AO38" s="137"/>
       <c r="AP38" s="137"/>
       <c r="AR38" s="146" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AS38" s="137"/>
       <c r="AT38" s="145"/>
       <c r="AU38" s="137" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AV38" s="145"/>
       <c r="AW38" s="137" t="s">
@@ -5576,7 +5615,7 @@
       <c r="BF38" s="368"/>
       <c r="BG38" s="368"/>
       <c r="BI38" s="347" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BJ38" s="137"/>
       <c r="BK38" s="137"/>
@@ -5599,7 +5638,7 @@
       <c r="CA38" s="137"/>
       <c r="CB38" s="145"/>
       <c r="CC38" s="137" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="CD38" s="145"/>
       <c r="CE38" s="137" t="s">
@@ -5656,15 +5695,15 @@
       </c>
       <c r="AJ39" s="135"/>
       <c r="AK39" s="137" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL39" s="137"/>
       <c r="AM39" s="137" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AN39" s="137"/>
       <c r="AO39" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AP39" s="137"/>
       <c r="AR39" s="146"/>
@@ -5683,20 +5722,20 @@
       <c r="BF39" s="364"/>
       <c r="BG39" s="204"/>
       <c r="BI39" s="347" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BJ39" s="348"/>
       <c r="BK39" s="348"/>
       <c r="BL39" s="348"/>
       <c r="BM39" s="348"/>
       <c r="BP39" s="347" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BQ39" s="347"/>
       <c r="BR39" s="348"/>
       <c r="BS39" s="348"/>
       <c r="BU39" s="347" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BV39" s="347"/>
       <c r="BW39" s="348"/>
@@ -5742,11 +5781,11 @@
         <v>96</v>
       </c>
       <c r="AC40" s="143" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AD40" s="143"/>
       <c r="AE40" s="143" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF40" s="142"/>
       <c r="AG40" s="369" t="s">
@@ -5756,10 +5795,10 @@
         <v>115</v>
       </c>
       <c r="AI40" s="369" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ40" s="369" t="s">
         <v>247</v>
-      </c>
-      <c r="AJ40" s="369" t="s">
-        <v>248</v>
       </c>
       <c r="AK40" s="135" t="s">
         <v>95</v>
@@ -5789,28 +5828,28 @@
       <c r="BF40" s="364"/>
       <c r="BG40" s="204"/>
       <c r="BI40" s="137" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BJ40" s="137"/>
       <c r="BK40" s="137"/>
       <c r="BL40" s="137" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BM40" s="137"/>
       <c r="BP40" s="137" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BQ40" s="137"/>
       <c r="BR40" s="137" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BS40" s="137"/>
       <c r="BU40" s="137" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BV40" s="137"/>
       <c r="BW40" s="137" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BX40" s="137"/>
       <c r="BZ40" s="146"/>
@@ -5960,10 +5999,10 @@
       </c>
       <c r="AF42" s="346"/>
       <c r="AG42" s="369" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH42" s="369" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI42" s="369" t="s">
         <v>115</v>
@@ -6076,7 +6115,7 @@
       <c r="BF43" s="364"/>
       <c r="BG43" s="204"/>
       <c r="BI43" s="347" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BJ43" s="137"/>
       <c r="BK43" s="137"/>
@@ -6184,7 +6223,7 @@
         <v>95</v>
       </c>
       <c r="BI44" s="347" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BJ44" s="348"/>
       <c r="BK44" s="348"/>
@@ -6193,14 +6232,14 @@
       <c r="BN44" s="144"/>
       <c r="BO44" s="144"/>
       <c r="BP44" s="347" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BQ44" s="347"/>
       <c r="BR44" s="348"/>
       <c r="BS44" s="348"/>
       <c r="BT44" s="144"/>
       <c r="BU44" s="347" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BV44" s="347"/>
       <c r="BW44" s="348"/>
@@ -6293,31 +6332,31 @@
         <v>95</v>
       </c>
       <c r="BI45" s="137" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BJ45" s="137"/>
       <c r="BK45" s="137"/>
       <c r="BL45" s="137" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BM45" s="137"/>
       <c r="BN45" s="144"/>
       <c r="BO45" s="144"/>
       <c r="BP45" s="137" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BQ45" s="137"/>
       <c r="BR45" s="137" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BS45" s="137"/>
       <c r="BT45" s="144"/>
       <c r="BU45" s="137" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BV45" s="137"/>
       <c r="BW45" s="137" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BX45" s="137"/>
       <c r="BZ45" s="190"/>
@@ -6851,7 +6890,7 @@
     <row r="58" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A58" s="130"/>
       <c r="P58" s="168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:93" x14ac:dyDescent="0.2">
@@ -6983,7 +7022,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -7968,7 +8007,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G2" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -8244,7 +8283,7 @@
       <c r="E22" s="224"/>
       <c r="F22" s="310"/>
       <c r="H22" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I22" s="245"/>
       <c r="J22" s="53" t="s">
@@ -8267,10 +8306,10 @@
       <c r="H23" s="54"/>
       <c r="I23" s="2"/>
       <c r="J23" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K23" s="300" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8286,7 +8325,7 @@
         <v>57</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I24" s="213"/>
       <c r="J24" s="308"/>
@@ -8305,7 +8344,7 @@
         <v>57</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I25" s="213"/>
       <c r="J25" s="293"/>
@@ -8317,7 +8356,7 @@
       <c r="E26" s="52"/>
       <c r="F26" s="7"/>
       <c r="H26" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I26" s="213"/>
       <c r="J26" s="293"/>
@@ -8335,7 +8374,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="7"/>
       <c r="H27" s="306" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I27" s="213"/>
       <c r="J27" s="305"/>
@@ -8353,10 +8392,10 @@
       <c r="H28" s="54"/>
       <c r="I28" s="1"/>
       <c r="J28" s="301" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K28" s="300" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M28" s="70" t="s">
         <v>90</v>
@@ -8372,7 +8411,7 @@
       <c r="E29" s="245"/>
       <c r="F29" s="7"/>
       <c r="H29" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I29" s="213"/>
       <c r="J29" s="299"/>
@@ -8559,7 +8598,7 @@
     </row>
     <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="276" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B41" s="274"/>
       <c r="C41" s="275" t="s">
@@ -8576,7 +8615,7 @@
         <v>57</v>
       </c>
       <c r="J41" s="224" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K41" s="242" t="s">
         <v>57</v>
@@ -8624,7 +8663,7 @@
     </row>
     <row r="44" spans="1:19" s="238" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="267" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" s="268"/>
       <c r="C44" s="268"/>
@@ -8645,12 +8684,12 @@
     </row>
     <row r="45" spans="1:19" s="238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B45" s="67"/>
       <c r="C45" s="265"/>
       <c r="D45" s="213" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E45" s="264"/>
       <c r="F45" s="264"/>
@@ -8670,7 +8709,7 @@
     </row>
     <row r="46" spans="1:19" s="238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" s="245"/>
       <c r="C46" s="53" t="s">
@@ -8702,12 +8741,12 @@
       <c r="B47" s="239"/>
       <c r="C47" s="239"/>
       <c r="F47" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G47" s="259"/>
       <c r="H47" s="258"/>
       <c r="I47" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J47" s="257"/>
       <c r="K47" s="211"/>
@@ -8715,20 +8754,20 @@
     <row r="48" spans="1:19" s="238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="256"/>
       <c r="B48" s="255" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C48" s="254"/>
       <c r="D48" s="253" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E48" s="253"/>
       <c r="F48" s="239"/>
       <c r="G48" s="213"/>
       <c r="H48" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I48" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J48" s="245"/>
       <c r="K48" s="211"/>
@@ -8776,7 +8815,7 @@
       </c>
       <c r="C51" s="52"/>
       <c r="D51" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="243" t="s">
@@ -8784,13 +8823,13 @@
       </c>
       <c r="G51" s="52"/>
       <c r="H51" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I51" s="243" t="s">
         <v>57</v>
       </c>
       <c r="J51" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K51" s="242" t="s">
         <v>57</v>
@@ -8798,14 +8837,14 @@
     </row>
     <row r="52" spans="1:11" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="227" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" s="241" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="226"/>
       <c r="D52" s="226" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E52" s="226"/>
       <c r="F52" s="241" t="s">
@@ -8813,7 +8852,7 @@
       </c>
       <c r="G52" s="226"/>
       <c r="H52" s="226" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I52" s="241" t="s">
         <v>57</v>
@@ -8850,7 +8889,7 @@
       <c r="H54" s="236"/>
       <c r="I54" s="235"/>
       <c r="J54" s="390" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K54" s="391"/>
     </row>
@@ -8962,22 +9001,22 @@
       <c r="E62" s="224"/>
       <c r="F62" s="224"/>
       <c r="G62" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H62" s="223" t="s">
         <v>116</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K62" s="222"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="217" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B63" s="215"/>
       <c r="C63" s="215"/>
@@ -8985,16 +9024,16 @@
       <c r="E63" s="52"/>
       <c r="F63" s="52"/>
       <c r="G63" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H63" s="221" t="s">
         <v>116</v>
       </c>
       <c r="I63" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J63" s="53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K63" s="220"/>
     </row>
@@ -9002,62 +9041,62 @@
       <c r="A64" s="217"/>
       <c r="B64" s="215"/>
       <c r="C64" s="215" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="52"/>
       <c r="F64" s="216"/>
       <c r="G64" s="52"/>
       <c r="H64" s="52"/>
       <c r="J64" s="215" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K64" s="7"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B65" s="214"/>
       <c r="C65" s="214"/>
       <c r="D65" s="213" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E65" s="213"/>
       <c r="F65" s="52"/>
       <c r="G65" s="52"/>
       <c r="H65" s="52"/>
       <c r="I65" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J65" s="212"/>
       <c r="K65" s="211" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="219" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B66" s="214"/>
       <c r="C66" s="214"/>
       <c r="D66" s="213" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E66" s="213"/>
       <c r="F66" s="32"/>
       <c r="G66" s="53"/>
       <c r="H66" s="22"/>
       <c r="I66" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J66" s="218"/>
       <c r="K66" s="211" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="217" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B67" s="52"/>
       <c r="C67" s="52"/>
@@ -9074,7 +9113,7 @@
       <c r="A68" s="217"/>
       <c r="B68" s="215"/>
       <c r="C68" s="215" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D68" s="52"/>
       <c r="E68" s="52"/>
@@ -9083,51 +9122,51 @@
       <c r="H68" s="52"/>
       <c r="I68" s="52"/>
       <c r="J68" s="215" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K68" s="7"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B69" s="214"/>
       <c r="C69" s="214"/>
       <c r="D69" s="213" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E69" s="213"/>
       <c r="F69" s="52"/>
       <c r="G69" s="52"/>
       <c r="H69" s="52"/>
       <c r="I69" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J69" s="212"/>
       <c r="K69" s="211" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L69" s="52"/>
     </row>
     <row r="70" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="210" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" s="209"/>
       <c r="C70" s="209"/>
       <c r="D70" s="209" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E70" s="209"/>
       <c r="F70" s="20"/>
       <c r="G70" s="208"/>
       <c r="H70" s="81"/>
       <c r="I70" s="208" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J70" s="207"/>
       <c r="K70" s="206" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -9188,7 +9227,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G2" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -9464,7 +9503,7 @@
       <c r="E22" s="224"/>
       <c r="F22" s="310"/>
       <c r="H22" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I22" s="245"/>
       <c r="J22" s="53" t="s">
@@ -9487,10 +9526,10 @@
       <c r="H23" s="54"/>
       <c r="I23" s="334"/>
       <c r="J23" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K23" s="300" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9506,7 +9545,7 @@
         <v>57</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I24" s="333"/>
       <c r="J24" s="308"/>
@@ -9525,7 +9564,7 @@
         <v>57</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I25" s="213"/>
       <c r="J25" s="293"/>
@@ -9537,7 +9576,7 @@
       <c r="E26" s="52"/>
       <c r="F26" s="7"/>
       <c r="H26" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I26" s="213"/>
       <c r="J26" s="293"/>
@@ -9555,7 +9594,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="7"/>
       <c r="H27" s="306" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I27" s="213"/>
       <c r="J27" s="305"/>
@@ -9573,10 +9612,10 @@
       <c r="H28" s="54"/>
       <c r="I28" s="1"/>
       <c r="J28" s="301" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K28" s="300" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M28" s="70" t="s">
         <v>90</v>
@@ -9592,7 +9631,7 @@
       <c r="E29" s="245"/>
       <c r="F29" s="7"/>
       <c r="H29" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I29" s="213"/>
       <c r="J29" s="299"/>
@@ -9779,7 +9818,7 @@
     </row>
     <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="276" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B41" s="274"/>
       <c r="C41" s="275" t="s">
@@ -9796,7 +9835,7 @@
         <v>57</v>
       </c>
       <c r="J41" s="224" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K41" s="242" t="s">
         <v>57</v>
@@ -9844,7 +9883,7 @@
     </row>
     <row r="44" spans="1:19" s="238" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="267" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" s="268"/>
       <c r="C44" s="268"/>
@@ -9865,12 +9904,12 @@
     </row>
     <row r="45" spans="1:19" s="238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B45" s="67"/>
       <c r="C45" s="265"/>
       <c r="D45" s="213" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E45" s="264"/>
       <c r="F45" s="264"/>
@@ -9890,7 +9929,7 @@
     </row>
     <row r="46" spans="1:19" s="238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" s="245"/>
       <c r="C46" s="53" t="s">
@@ -9922,12 +9961,12 @@
       <c r="B47" s="239"/>
       <c r="C47" s="239"/>
       <c r="F47" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G47" s="259"/>
       <c r="H47" s="258"/>
       <c r="I47" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J47" s="257"/>
       <c r="K47" s="211"/>
@@ -9935,20 +9974,20 @@
     <row r="48" spans="1:19" s="238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="256"/>
       <c r="B48" s="255" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C48" s="254"/>
       <c r="D48" s="253" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E48" s="253"/>
       <c r="F48" s="239"/>
       <c r="G48" s="213"/>
       <c r="H48" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I48" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J48" s="245"/>
       <c r="K48" s="211"/>
@@ -9996,7 +10035,7 @@
       </c>
       <c r="C51" s="52"/>
       <c r="D51" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="243" t="s">
@@ -10004,13 +10043,13 @@
       </c>
       <c r="G51" s="52"/>
       <c r="H51" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I51" s="243" t="s">
         <v>57</v>
       </c>
       <c r="J51" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K51" s="242" t="s">
         <v>57</v>
@@ -10018,14 +10057,14 @@
     </row>
     <row r="52" spans="1:11" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="227" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" s="241" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="226"/>
       <c r="D52" s="226" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E52" s="226"/>
       <c r="F52" s="241" t="s">
@@ -10033,7 +10072,7 @@
       </c>
       <c r="G52" s="226"/>
       <c r="H52" s="226" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I52" s="241" t="s">
         <v>57</v>
@@ -10070,7 +10109,7 @@
       <c r="H54" s="236"/>
       <c r="I54" s="235"/>
       <c r="J54" s="390" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K54" s="391"/>
     </row>
@@ -10374,7 +10413,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
@@ -10384,7 +10423,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J7" s="59"/>
       <c r="K7" s="60"/>
@@ -10394,7 +10433,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
@@ -10404,7 +10443,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J8" s="61"/>
       <c r="K8" s="62"/>
@@ -10414,7 +10453,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -10424,7 +10463,7 @@
         <v>27</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J9" s="61"/>
       <c r="K9" s="62"/>
@@ -10440,7 +10479,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>6</v>
@@ -10452,7 +10491,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="60"/>
@@ -10470,7 +10509,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J12" s="61"/>
       <c r="K12" s="62"/>
@@ -10480,7 +10519,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="76"/>
       <c r="D13" s="24" t="s">
@@ -10512,7 +10551,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="76"/>
       <c r="D15" s="24" t="s">
@@ -10520,7 +10559,7 @@
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -10533,7 +10572,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="76"/>
       <c r="D16" s="24" t="s">
@@ -10541,7 +10580,7 @@
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H16" s="374" t="s">
         <v>15</v>
@@ -10556,7 +10595,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="24" t="s">
@@ -10564,7 +10603,7 @@
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>35</v>
@@ -10573,7 +10612,7 @@
         <v>36</v>
       </c>
       <c r="J17" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K17" s="60"/>
       <c r="N17" s="24"/>
@@ -10590,7 +10629,7 @@
         <v>37</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K18" s="62"/>
     </row>
@@ -10615,7 +10654,7 @@
         <v>10</v>
       </c>
       <c r="K20" s="86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10644,13 +10683,13 @@
         <v>12</v>
       </c>
       <c r="I22" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10658,7 +10697,7 @@
         <v>73</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
@@ -10668,16 +10707,16 @@
         <v>57</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>38</v>
       </c>
       <c r="K23" s="92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10685,7 +10724,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32" t="s">
@@ -10698,13 +10737,13 @@
         <v>32</v>
       </c>
       <c r="I24" s="93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>33</v>
       </c>
       <c r="K24" s="94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10712,7 +10751,7 @@
         <v>74</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
@@ -10725,7 +10764,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>34</v>
@@ -10771,11 +10810,11 @@
         <v>62</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E28" s="85"/>
       <c r="F28" s="34"/>
@@ -10783,10 +10822,10 @@
         <v>20</v>
       </c>
       <c r="I28" s="99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J28" s="100" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K28" s="101"/>
       <c r="M28" s="70" t="s">
@@ -10798,11 +10837,11 @@
         <v>61</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="103"/>
       <c r="D29" s="104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" s="102"/>
       <c r="F29" s="34"/>
@@ -10810,10 +10849,10 @@
         <v>21</v>
       </c>
       <c r="I29" s="105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J29" s="106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K29" s="101"/>
       <c r="M29" s="70" t="s">
@@ -10825,22 +10864,22 @@
         <v>63</v>
       </c>
       <c r="B30" s="335" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" s="337"/>
       <c r="D30" s="336" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E30" s="335"/>
       <c r="F30" s="34"/>
       <c r="H30" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I30" s="105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J30" s="106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K30" s="101"/>
       <c r="M30" s="70" t="s">
@@ -10858,10 +10897,10 @@
         <v>22</v>
       </c>
       <c r="I31" s="110" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J31" s="111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K31" s="101"/>
     </row>
@@ -11080,7 +11119,7 @@
       <c r="H44" s="375"/>
       <c r="I44" s="376"/>
       <c r="J44" s="381" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K44" s="382"/>
     </row>
@@ -11117,7 +11156,7 @@
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="J46" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K46" s="118"/>
     </row>
@@ -11168,7 +11207,7 @@
       <c r="H49" s="67"/>
       <c r="I49" s="32"/>
       <c r="J49" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K49" s="63"/>
     </row>
@@ -11200,13 +11239,13 @@
         <v>52</v>
       </c>
       <c r="I52" s="119" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>66</v>
       </c>
       <c r="K52" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -11361,7 +11400,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G2" s="71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -11398,7 +11437,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
@@ -11408,7 +11447,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J7" s="59"/>
       <c r="K7" s="60"/>
@@ -11418,7 +11457,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
@@ -11428,7 +11467,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J8" s="61"/>
       <c r="K8" s="62"/>
@@ -11438,7 +11477,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -11448,7 +11487,7 @@
         <v>27</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J9" s="61"/>
       <c r="K9" s="62"/>
@@ -11464,7 +11503,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>6</v>
@@ -11476,7 +11515,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="60"/>
@@ -11494,7 +11533,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J12" s="61"/>
       <c r="K12" s="62"/>
@@ -11504,7 +11543,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="76"/>
       <c r="D13" s="24" t="s">
@@ -11536,7 +11575,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="76"/>
       <c r="D15" s="24" t="s">
@@ -11544,7 +11583,7 @@
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -11557,7 +11596,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="76"/>
       <c r="D16" s="24" t="s">
@@ -11565,7 +11604,7 @@
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H16" s="374" t="s">
         <v>15</v>
@@ -11580,7 +11619,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="24" t="s">
@@ -11588,7 +11627,7 @@
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>35</v>
@@ -11597,7 +11636,7 @@
         <v>36</v>
       </c>
       <c r="J17" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K17" s="60"/>
       <c r="N17" s="24"/>
@@ -11614,7 +11653,7 @@
         <v>37</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K18" s="62"/>
     </row>
@@ -11639,7 +11678,7 @@
         <v>10</v>
       </c>
       <c r="K20" s="86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11668,13 +11707,13 @@
         <v>12</v>
       </c>
       <c r="I22" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11682,7 +11721,7 @@
         <v>73</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
@@ -11692,16 +11731,16 @@
         <v>57</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>38</v>
       </c>
       <c r="K23" s="92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11709,7 +11748,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32" t="s">
@@ -11722,13 +11761,13 @@
         <v>32</v>
       </c>
       <c r="I24" s="93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>33</v>
       </c>
       <c r="K24" s="94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11736,7 +11775,7 @@
         <v>74</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
@@ -11749,7 +11788,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>34</v>
@@ -11795,22 +11834,22 @@
         <v>62</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E28" s="85"/>
       <c r="F28" s="34"/>
       <c r="H28" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I28" s="99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J28" s="100" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K28" s="101"/>
       <c r="M28" s="70" t="s">
@@ -11822,19 +11861,19 @@
         <v>61</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="103"/>
       <c r="D29" s="104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" s="102"/>
       <c r="F29" s="34"/>
       <c r="H29" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I29" s="392" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J29" s="392"/>
       <c r="K29" s="101"/>
@@ -11847,22 +11886,22 @@
         <v>63</v>
       </c>
       <c r="B30" s="335" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" s="337"/>
       <c r="D30" s="336" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E30" s="335"/>
       <c r="F30" s="34"/>
       <c r="H30" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I30" s="99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J30" s="100" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K30" s="101"/>
       <c r="M30" s="70" t="s">
@@ -11877,10 +11916,10 @@
       <c r="E31" s="32"/>
       <c r="F31" s="34"/>
       <c r="H31" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I31" s="393" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J31" s="393"/>
       <c r="K31" s="101"/>
@@ -12100,7 +12139,7 @@
       <c r="H44" s="375"/>
       <c r="I44" s="376"/>
       <c r="J44" s="381" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K44" s="382"/>
     </row>
@@ -12137,7 +12176,7 @@
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="J46" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K46" s="118"/>
     </row>
@@ -12188,7 +12227,7 @@
       <c r="H49" s="67"/>
       <c r="I49" s="32"/>
       <c r="J49" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K49" s="63"/>
     </row>
@@ -12220,13 +12259,13 @@
         <v>52</v>
       </c>
       <c r="I52" s="119" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>66</v>
       </c>
       <c r="K52" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
